--- a/published-data/fonds-solidarite/fds-2022-06-23/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-23/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -5194,13 +5194,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D94" t="n">
         <v>37</v>
       </c>
       <c r="E94" t="n">
-        <v>19267452</v>
+        <v>19321988</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -18097,13 +18097,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>14362</v>
+        <v>14364</v>
       </c>
       <c r="D347" t="n">
         <v>2812</v>
       </c>
       <c r="E347" t="n">
-        <v>36193311</v>
+        <v>36198911</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -18148,13 +18148,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>5213</v>
+        <v>5218</v>
       </c>
       <c r="D348" t="n">
         <v>1053</v>
       </c>
       <c r="E348" t="n">
-        <v>20442161</v>
+        <v>20473121</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -18199,13 +18199,13 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D349" t="n">
         <v>408</v>
       </c>
       <c r="E349" t="n">
-        <v>13657300</v>
+        <v>13672438</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -18505,13 +18505,13 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="D355" t="n">
         <v>377</v>
       </c>
       <c r="E355" t="n">
-        <v>5953050</v>
+        <v>5956007</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
@@ -18556,13 +18556,13 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>6277</v>
+        <v>6279</v>
       </c>
       <c r="D356" t="n">
         <v>957</v>
       </c>
       <c r="E356" t="n">
-        <v>15147825</v>
+        <v>15206435</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
@@ -22024,13 +22024,13 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="D424" t="n">
         <v>280</v>
       </c>
       <c r="E424" t="n">
-        <v>78671402</v>
+        <v>79035566</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
@@ -22483,13 +22483,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>61106</v>
+        <v>61107</v>
       </c>
       <c r="D433" t="n">
         <v>9650</v>
       </c>
       <c r="E433" t="n">
-        <v>221184384</v>
+        <v>221190182</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163680</v>
+        <v>163684</v>
       </c>
       <c r="D434" t="n">
         <v>25458</v>
       </c>
       <c r="E434" t="n">
-        <v>712257724</v>
+        <v>712282663</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94662</v>
+        <v>94665</v>
       </c>
       <c r="D435" t="n">
         <v>12852</v>
       </c>
       <c r="E435" t="n">
-        <v>653679486</v>
+        <v>653773136</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22738,13 +22738,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>10275</v>
+        <v>10277</v>
       </c>
       <c r="D438" t="n">
         <v>1383</v>
       </c>
       <c r="E438" t="n">
-        <v>484111489</v>
+        <v>484444469</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -23707,13 +23707,13 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>48925</v>
+        <v>48926</v>
       </c>
       <c r="D457" t="n">
         <v>8597</v>
       </c>
       <c r="E457" t="n">
-        <v>164833115</v>
+        <v>164852498</v>
       </c>
       <c r="F457" t="inlineStr">
         <is>
